--- a/public/files/products.xlsx
+++ b/public/files/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erhaf\Documents\Custom Office Templates\MAGANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DD69A4-722D-4345-859C-B96F079B4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF8997-F660-4704-BD3F-3E6E400D417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9E0AAA3E-FA4C-45FF-95A1-9695AE96C787}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{9E0AAA3E-FA4C-45FF-95A1-9695AE96C787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>iditem</t>
   </si>
@@ -51,6 +43,9 @@
   </si>
   <si>
     <t>penghapus</t>
+  </si>
+  <si>
+    <t>papan</t>
   </si>
 </sst>
 </file>
@@ -394,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED85CCC-35B3-4861-97B0-4EBE4706D9DD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,6 +440,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/files/products.xlsx
+++ b/public/files/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erhaf\Documents\Custom Office Templates\MAGANG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEF8997-F660-4704-BD3F-3E6E400D417F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8DD69A4-722D-4345-859C-B96F079B4BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" xr2:uid="{9E0AAA3E-FA4C-45FF-95A1-9695AE96C787}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9E0AAA3E-FA4C-45FF-95A1-9695AE96C787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>iditem</t>
   </si>
@@ -43,9 +51,6 @@
   </si>
   <si>
     <t>penghapus</t>
-  </si>
-  <si>
-    <t>papan</t>
   </si>
 </sst>
 </file>
@@ -389,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED85CCC-35B3-4861-97B0-4EBE4706D9DD}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,14 +445,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
